--- a/biology/Histoire de la zoologie et de la botanique/Edward_Newton/Edward_Newton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Newton/Edward_Newton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir Edward Newton est un administrateur colonial et un ornithologue britannique, né en novembre 1832 et mort le 25 avril 1897 à Lowestoft.
 Il est le frère d'Alfred Newton (1829-1907), professeur de zoologie et d’anatomie comparée à Cambridge.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward travaille pour l’administration coloniale britannique. Il est en poste à l’île Maurice de 1859 à 1877, puis, de 1877 à 1883, à la Jamaïque.
 Il est l'un des fondateurs de la British Ornithologists' Union et de son journal The Ibis.
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres) : 400 p.  (ISBN 0-300-10359-X)
 Sur les autres projets Wikimedia :
